--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adam10-Epha3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adam10-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>66.5501215282778</v>
+        <v>66.91327099999999</v>
       </c>
       <c r="H2">
-        <v>66.5501215282778</v>
+        <v>133.826542</v>
       </c>
       <c r="I2">
-        <v>0.2740485331116328</v>
+        <v>0.2715815439856463</v>
       </c>
       <c r="J2">
-        <v>0.2740485331116328</v>
+        <v>0.2058153664778856</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>10.3476819803069</v>
+        <v>0.0147745</v>
       </c>
       <c r="N2">
-        <v>10.3476819803069</v>
+        <v>0.029549</v>
       </c>
       <c r="O2">
-        <v>0.9397314032634053</v>
+        <v>0.001149981856525043</v>
       </c>
       <c r="P2">
-        <v>0.9397314032634053</v>
+        <v>0.0007958682187241619</v>
       </c>
       <c r="Q2">
-        <v>688.6394933253945</v>
+        <v>0.9886101223894999</v>
       </c>
       <c r="R2">
-        <v>688.6394933253945</v>
+        <v>3.954440489557999</v>
       </c>
       <c r="S2">
-        <v>0.2575320125832725</v>
+        <v>0.000312313848150551</v>
       </c>
       <c r="T2">
-        <v>0.2575320125832725</v>
+        <v>0.0001638019091048154</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>66.5501215282778</v>
+        <v>66.91327099999999</v>
       </c>
       <c r="H3">
-        <v>66.5501215282778</v>
+        <v>133.826542</v>
       </c>
       <c r="I3">
-        <v>0.2740485331116328</v>
+        <v>0.2715815439856463</v>
       </c>
       <c r="J3">
-        <v>0.2740485331116328</v>
+        <v>0.2058153664778856</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.113062531161492</v>
+        <v>11.243073</v>
       </c>
       <c r="N3">
-        <v>0.113062531161492</v>
+        <v>33.729219</v>
       </c>
       <c r="O3">
-        <v>0.01026784658313882</v>
+        <v>0.8751111686748507</v>
       </c>
       <c r="P3">
-        <v>0.01026784658313882</v>
+        <v>0.9084575939790571</v>
       </c>
       <c r="Q3">
-        <v>7.524325189091988</v>
+        <v>752.310790521783</v>
       </c>
       <c r="R3">
-        <v>7.524325189091988</v>
+        <v>4513.864743130698</v>
       </c>
       <c r="S3">
-        <v>0.002813888294324485</v>
+        <v>0.2376640423477993</v>
       </c>
       <c r="T3">
-        <v>0.002813888294324485</v>
+        <v>0.1869745326344179</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>66.5501215282778</v>
+        <v>66.91327099999999</v>
       </c>
       <c r="H4">
-        <v>66.5501215282778</v>
+        <v>133.826542</v>
       </c>
       <c r="I4">
-        <v>0.2740485331116328</v>
+        <v>0.2715815439856463</v>
       </c>
       <c r="J4">
-        <v>0.2740485331116328</v>
+        <v>0.2058153664778856</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.550574195528632</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N4">
-        <v>0.550574195528632</v>
+        <v>0.131107</v>
       </c>
       <c r="O4">
-        <v>0.05000075015345577</v>
+        <v>0.003401596698442785</v>
       </c>
       <c r="P4">
-        <v>0.05000075015345577</v>
+        <v>0.003531215762031497</v>
       </c>
       <c r="Q4">
-        <v>36.64077962276424</v>
+        <v>2.924266073665667</v>
       </c>
       <c r="R4">
-        <v>36.64077962276424</v>
+        <v>17.545596441994</v>
       </c>
       <c r="S4">
-        <v>0.0137026322340358</v>
+        <v>0.0009238108833795684</v>
       </c>
       <c r="T4">
-        <v>0.0137026322340358</v>
+        <v>0.0007267784661749986</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.8434190019722</v>
+        <v>66.91327099999999</v>
       </c>
       <c r="H5">
-        <v>23.8434190019722</v>
+        <v>133.826542</v>
       </c>
       <c r="I5">
-        <v>0.0981854555904912</v>
+        <v>0.2715815439856463</v>
       </c>
       <c r="J5">
-        <v>0.0981854555904912</v>
+        <v>0.2058153664778856</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>10.3476819803069</v>
+        <v>0.03203666666666666</v>
       </c>
       <c r="N5">
-        <v>10.3476819803069</v>
+        <v>0.09611</v>
       </c>
       <c r="O5">
-        <v>0.9397314032634053</v>
+        <v>0.002493592704335665</v>
       </c>
       <c r="P5">
-        <v>0.9397314032634053</v>
+        <v>0.002588611949696409</v>
       </c>
       <c r="Q5">
-        <v>246.7241171556149</v>
+        <v>2.143678158603333</v>
       </c>
       <c r="R5">
-        <v>246.7241171556149</v>
+        <v>12.86206895162</v>
       </c>
       <c r="S5">
-        <v>0.09226795596210906</v>
+        <v>0.0006772137567148231</v>
       </c>
       <c r="T5">
-        <v>0.09226795596210906</v>
+        <v>0.0005327761170958005</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.8434190019722</v>
+        <v>66.91327099999999</v>
       </c>
       <c r="H6">
-        <v>23.8434190019722</v>
+        <v>133.826542</v>
       </c>
       <c r="I6">
-        <v>0.0981854555904912</v>
+        <v>0.2715815439856463</v>
       </c>
       <c r="J6">
-        <v>0.0981854555904912</v>
+        <v>0.2058153664778856</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.113062531161492</v>
+        <v>0.114006</v>
       </c>
       <c r="N6">
-        <v>0.113062531161492</v>
+        <v>0.342018</v>
       </c>
       <c r="O6">
-        <v>0.01026784658313882</v>
+        <v>0.008873723749365056</v>
       </c>
       <c r="P6">
-        <v>0.01026784658313882</v>
+        <v>0.009211860179078832</v>
       </c>
       <c r="Q6">
-        <v>2.695797303906992</v>
+        <v>7.628514373626</v>
       </c>
       <c r="R6">
-        <v>2.695797303906992</v>
+        <v>45.771086241756</v>
       </c>
       <c r="S6">
-        <v>0.001008153194698754</v>
+        <v>0.00240993959675466</v>
       </c>
       <c r="T6">
-        <v>0.001008153194698754</v>
+        <v>0.001895942378700151</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.8434190019722</v>
+        <v>66.91327099999999</v>
       </c>
       <c r="H7">
-        <v>23.8434190019722</v>
+        <v>133.826542</v>
       </c>
       <c r="I7">
-        <v>0.0981854555904912</v>
+        <v>0.2715815439856463</v>
       </c>
       <c r="J7">
-        <v>0.0981854555904912</v>
+        <v>0.2058153664778856</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.550574195528632</v>
+        <v>1.4000015</v>
       </c>
       <c r="N7">
-        <v>0.550574195528632</v>
+        <v>2.800003</v>
       </c>
       <c r="O7">
-        <v>0.05000075015345577</v>
+        <v>0.1089699363164807</v>
       </c>
       <c r="P7">
-        <v>0.05000075015345577</v>
+        <v>0.07541484991141187</v>
       </c>
       <c r="Q7">
-        <v>13.12757123566294</v>
+        <v>93.67867976990648</v>
       </c>
       <c r="R7">
-        <v>13.12757123566294</v>
+        <v>374.7147190796259</v>
       </c>
       <c r="S7">
-        <v>0.004909346433683378</v>
+        <v>0.02959422355284739</v>
       </c>
       <c r="T7">
-        <v>0.004909346433683378</v>
+        <v>0.01552153497239197</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.7889166344191</v>
+        <v>25.37705433333333</v>
       </c>
       <c r="H8">
-        <v>47.7889166344191</v>
+        <v>76.131163</v>
       </c>
       <c r="I8">
-        <v>0.1967912635154518</v>
+        <v>0.102998097307996</v>
       </c>
       <c r="J8">
-        <v>0.1967912635154518</v>
+        <v>0.1170841223203141</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>10.3476819803069</v>
+        <v>0.0147745</v>
       </c>
       <c r="N8">
-        <v>10.3476819803069</v>
+        <v>0.029549</v>
       </c>
       <c r="O8">
-        <v>0.9397314032634053</v>
+        <v>0.001149981856525043</v>
       </c>
       <c r="P8">
-        <v>0.9397314032634053</v>
+        <v>0.0007958682187241619</v>
       </c>
       <c r="Q8">
-        <v>494.5045115163672</v>
+        <v>0.3749332892478333</v>
       </c>
       <c r="R8">
-        <v>494.5045115163672</v>
+        <v>2.249599735487</v>
       </c>
       <c r="S8">
-        <v>0.1849309302133541</v>
+        <v>0.0001184459431607962</v>
       </c>
       <c r="T8">
-        <v>0.1849309302133541</v>
+        <v>9.318353187195024E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,184 +968,184 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.7889166344191</v>
+        <v>25.37705433333333</v>
       </c>
       <c r="H9">
-        <v>47.7889166344191</v>
+        <v>76.131163</v>
       </c>
       <c r="I9">
-        <v>0.1967912635154518</v>
+        <v>0.102998097307996</v>
       </c>
       <c r="J9">
-        <v>0.1967912635154518</v>
+        <v>0.1170841223203141</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.113062531161492</v>
+        <v>11.243073</v>
       </c>
       <c r="N9">
-        <v>0.113062531161492</v>
+        <v>33.729219</v>
       </c>
       <c r="O9">
-        <v>0.01026784658313882</v>
+        <v>0.8751111686748507</v>
       </c>
       <c r="P9">
-        <v>0.01026784658313882</v>
+        <v>0.9084575939790571</v>
       </c>
       <c r="Q9">
-        <v>5.403135876152953</v>
+        <v>285.316074394633</v>
       </c>
       <c r="R9">
-        <v>5.403135876152953</v>
+        <v>2567.844669551697</v>
       </c>
       <c r="S9">
-        <v>0.002020622502678703</v>
+        <v>0.09013478530648635</v>
       </c>
       <c r="T9">
-        <v>0.002020622502678703</v>
+        <v>0.1063659600562621</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>47.7889166344191</v>
+        <v>25.37705433333333</v>
       </c>
       <c r="H10">
-        <v>47.7889166344191</v>
+        <v>76.131163</v>
       </c>
       <c r="I10">
-        <v>0.1967912635154518</v>
+        <v>0.102998097307996</v>
       </c>
       <c r="J10">
-        <v>0.1967912635154518</v>
+        <v>0.1170841223203141</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.550574195528632</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N10">
-        <v>0.550574195528632</v>
+        <v>0.131107</v>
       </c>
       <c r="O10">
-        <v>0.05000075015345577</v>
+        <v>0.003401596698442785</v>
       </c>
       <c r="P10">
-        <v>0.05000075015345577</v>
+        <v>0.003531215762031497</v>
       </c>
       <c r="Q10">
-        <v>26.31134433118016</v>
+        <v>1.109036487493445</v>
       </c>
       <c r="R10">
-        <v>26.31134433118016</v>
+        <v>9.981328387441</v>
       </c>
       <c r="S10">
-        <v>0.009839710799418984</v>
+        <v>0.0003503579877487677</v>
       </c>
       <c r="T10">
-        <v>0.009839710799418984</v>
+        <v>0.0004134492982211168</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>46.2935062687076</v>
+        <v>25.37705433333333</v>
       </c>
       <c r="H11">
-        <v>46.2935062687076</v>
+        <v>76.131163</v>
       </c>
       <c r="I11">
-        <v>0.1906332730007534</v>
+        <v>0.102998097307996</v>
       </c>
       <c r="J11">
-        <v>0.1906332730007534</v>
+        <v>0.1170841223203141</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>10.3476819803069</v>
+        <v>0.03203666666666666</v>
       </c>
       <c r="N11">
-        <v>10.3476819803069</v>
+        <v>0.09611</v>
       </c>
       <c r="O11">
-        <v>0.9397314032634053</v>
+        <v>0.002493592704335665</v>
       </c>
       <c r="P11">
-        <v>0.9397314032634053</v>
+        <v>0.002588611949696409</v>
       </c>
       <c r="Q11">
-        <v>479.0304806219302</v>
+        <v>0.8129962306588888</v>
       </c>
       <c r="R11">
-        <v>479.0304806219302</v>
+        <v>7.31696607593</v>
       </c>
       <c r="S11">
-        <v>0.1791440731456938</v>
+        <v>0.0002568353040076737</v>
       </c>
       <c r="T11">
-        <v>0.1791440731456938</v>
+        <v>0.0003030853581580811</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>46.2935062687076</v>
+        <v>25.37705433333333</v>
       </c>
       <c r="H12">
-        <v>46.2935062687076</v>
+        <v>76.131163</v>
       </c>
       <c r="I12">
-        <v>0.1906332730007534</v>
+        <v>0.102998097307996</v>
       </c>
       <c r="J12">
-        <v>0.1906332730007534</v>
+        <v>0.1170841223203141</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.113062531161492</v>
+        <v>0.114006</v>
       </c>
       <c r="N12">
-        <v>0.113062531161492</v>
+        <v>0.342018</v>
       </c>
       <c r="O12">
-        <v>0.01026784658313882</v>
+        <v>0.008873723749365056</v>
       </c>
       <c r="P12">
-        <v>0.01026784658313882</v>
+        <v>0.009211860179078832</v>
       </c>
       <c r="Q12">
-        <v>5.234060995080478</v>
+        <v>2.893136456326</v>
       </c>
       <c r="R12">
-        <v>5.234060995080478</v>
+        <v>26.038228106934</v>
       </c>
       <c r="S12">
-        <v>0.001957393200813356</v>
+        <v>0.0009139766622213768</v>
       </c>
       <c r="T12">
-        <v>0.001957393200813356</v>
+        <v>0.001078562564004896</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>46.2935062687076</v>
+        <v>25.37705433333333</v>
       </c>
       <c r="H13">
-        <v>46.2935062687076</v>
+        <v>76.131163</v>
       </c>
       <c r="I13">
-        <v>0.1906332730007534</v>
+        <v>0.102998097307996</v>
       </c>
       <c r="J13">
-        <v>0.1906332730007534</v>
+        <v>0.1170841223203141</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.550574195528632</v>
+        <v>1.4000015</v>
       </c>
       <c r="N13">
-        <v>0.550574195528632</v>
+        <v>2.800003</v>
       </c>
       <c r="O13">
-        <v>0.05000075015345577</v>
+        <v>0.1089699363164807</v>
       </c>
       <c r="P13">
-        <v>0.05000075015345577</v>
+        <v>0.07541484991141187</v>
       </c>
       <c r="Q13">
-        <v>25.48800997209337</v>
+        <v>35.52791413224816</v>
       </c>
       <c r="R13">
-        <v>25.48800997209337</v>
+        <v>213.167484793489</v>
       </c>
       <c r="S13">
-        <v>0.009531806654246194</v>
+        <v>0.011223696104371</v>
       </c>
       <c r="T13">
-        <v>0.009531806654246194</v>
+        <v>0.008829881511795874</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>36.6481665192376</v>
+        <v>47.92535166666666</v>
       </c>
       <c r="H14">
-        <v>36.6481665192376</v>
+        <v>143.776055</v>
       </c>
       <c r="I14">
-        <v>0.1509144693531534</v>
+        <v>0.1945150910600141</v>
       </c>
       <c r="J14">
-        <v>0.1509144693531534</v>
+        <v>0.2211169847799672</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>10.3476819803069</v>
+        <v>0.0147745</v>
       </c>
       <c r="N14">
-        <v>10.3476819803069</v>
+        <v>0.029549</v>
       </c>
       <c r="O14">
-        <v>0.9397314032634053</v>
+        <v>0.001149981856525043</v>
       </c>
       <c r="P14">
-        <v>0.9397314032634053</v>
+        <v>0.0007958682187241619</v>
       </c>
       <c r="Q14">
-        <v>379.2235723024016</v>
+        <v>0.7080731081991666</v>
       </c>
       <c r="R14">
-        <v>379.2235723024016</v>
+        <v>4.248438649194999</v>
       </c>
       <c r="S14">
-        <v>0.1418190660579911</v>
+        <v>0.0002236888255393328</v>
       </c>
       <c r="T14">
-        <v>0.1418190660579911</v>
+        <v>0.0001759799808064901</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>36.6481665192376</v>
+        <v>47.92535166666666</v>
       </c>
       <c r="H15">
-        <v>36.6481665192376</v>
+        <v>143.776055</v>
       </c>
       <c r="I15">
-        <v>0.1509144693531534</v>
+        <v>0.1945150910600141</v>
       </c>
       <c r="J15">
-        <v>0.1509144693531534</v>
+        <v>0.2211169847799672</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.113062531161492</v>
+        <v>11.243073</v>
       </c>
       <c r="N15">
-        <v>0.113062531161492</v>
+        <v>33.729219</v>
       </c>
       <c r="O15">
-        <v>0.01026784658313882</v>
+        <v>0.8751111686748507</v>
       </c>
       <c r="P15">
-        <v>0.01026784658313882</v>
+        <v>0.9084575939790571</v>
       </c>
       <c r="Q15">
-        <v>4.143534469092849</v>
+        <v>538.828227339005</v>
       </c>
       <c r="R15">
-        <v>4.143534469092849</v>
+        <v>4849.454046051044</v>
       </c>
       <c r="S15">
-        <v>0.001549566618493985</v>
+        <v>0.170222328662424</v>
       </c>
       <c r="T15">
-        <v>0.001549566618493985</v>
+        <v>0.2008754039811128</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>36.6481665192376</v>
+        <v>47.92535166666666</v>
       </c>
       <c r="H16">
-        <v>36.6481665192376</v>
+        <v>143.776055</v>
       </c>
       <c r="I16">
-        <v>0.1509144693531534</v>
+        <v>0.1945150910600141</v>
       </c>
       <c r="J16">
-        <v>0.1509144693531534</v>
+        <v>0.2211169847799672</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.550574195528632</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N16">
-        <v>0.550574195528632</v>
+        <v>0.131107</v>
       </c>
       <c r="O16">
-        <v>0.05000075015345577</v>
+        <v>0.003401596698442785</v>
       </c>
       <c r="P16">
-        <v>0.05000075015345577</v>
+        <v>0.003531215762031497</v>
       </c>
       <c r="Q16">
-        <v>20.17753479892858</v>
+        <v>2.094449693653889</v>
       </c>
       <c r="R16">
-        <v>20.17753479892858</v>
+        <v>18.850047242885</v>
       </c>
       <c r="S16">
-        <v>0.007545836676668384</v>
+        <v>0.0006616618915470417</v>
       </c>
       <c r="T16">
-        <v>0.007545836676668384</v>
+        <v>0.0007808117819078987</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>21.7165113478404</v>
+        <v>47.92535166666666</v>
       </c>
       <c r="H17">
-        <v>21.7165113478404</v>
+        <v>143.776055</v>
       </c>
       <c r="I17">
-        <v>0.08942700542851735</v>
+        <v>0.1945150910600141</v>
       </c>
       <c r="J17">
-        <v>0.08942700542851735</v>
+        <v>0.2211169847799672</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>10.3476819803069</v>
+        <v>0.03203666666666666</v>
       </c>
       <c r="N17">
-        <v>10.3476819803069</v>
+        <v>0.09611</v>
       </c>
       <c r="O17">
-        <v>0.9397314032634053</v>
+        <v>0.002493592704335665</v>
       </c>
       <c r="P17">
-        <v>0.9397314032634053</v>
+        <v>0.002588611949696409</v>
       </c>
       <c r="Q17">
-        <v>224.7155531491784</v>
+        <v>1.535368516227778</v>
       </c>
       <c r="R17">
-        <v>224.7155531491784</v>
+        <v>13.81831664605</v>
       </c>
       <c r="S17">
-        <v>0.08403736530098478</v>
+        <v>0.0004850414119504388</v>
       </c>
       <c r="T17">
-        <v>0.08403736530098478</v>
+        <v>0.0005723860690822622</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,57 +1529,57 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>21.7165113478404</v>
+        <v>47.92535166666666</v>
       </c>
       <c r="H18">
-        <v>21.7165113478404</v>
+        <v>143.776055</v>
       </c>
       <c r="I18">
-        <v>0.08942700542851735</v>
+        <v>0.1945150910600141</v>
       </c>
       <c r="J18">
-        <v>0.08942700542851735</v>
+        <v>0.2211169847799672</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.113062531161492</v>
+        <v>0.114006</v>
       </c>
       <c r="N18">
-        <v>0.113062531161492</v>
+        <v>0.342018</v>
       </c>
       <c r="O18">
-        <v>0.01026784658313882</v>
+        <v>0.008873723749365056</v>
       </c>
       <c r="P18">
-        <v>0.01026784658313882</v>
+        <v>0.009211860179078832</v>
       </c>
       <c r="Q18">
-        <v>2.4553237409841</v>
+        <v>5.46377764211</v>
       </c>
       <c r="R18">
-        <v>2.4553237409841</v>
+        <v>49.17399877899</v>
       </c>
       <c r="S18">
-        <v>0.0009182227721295387</v>
+        <v>0.001726073183149154</v>
       </c>
       <c r="T18">
-        <v>0.0009182227721295387</v>
+        <v>0.00203689874701256</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,52 +1591,1168 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>21.7165113478404</v>
+        <v>47.92535166666666</v>
       </c>
       <c r="H19">
-        <v>21.7165113478404</v>
+        <v>143.776055</v>
       </c>
       <c r="I19">
-        <v>0.08942700542851735</v>
+        <v>0.1945150910600141</v>
       </c>
       <c r="J19">
-        <v>0.08942700542851735</v>
+        <v>0.2211169847799672</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.550574195528632</v>
+        <v>1.4000015</v>
       </c>
       <c r="N19">
-        <v>0.550574195528632</v>
+        <v>2.800003</v>
       </c>
       <c r="O19">
-        <v>0.05000075015345577</v>
+        <v>0.1089699363164807</v>
       </c>
       <c r="P19">
-        <v>0.05000075015345577</v>
+        <v>0.07541484991141187</v>
       </c>
       <c r="Q19">
-        <v>11.95655076502563</v>
+        <v>67.09556422136083</v>
       </c>
       <c r="R19">
-        <v>11.95655076502563</v>
+        <v>402.5733853281649</v>
       </c>
       <c r="S19">
-        <v>0.004471417355403029</v>
+        <v>0.02119629708540419</v>
       </c>
       <c r="T19">
-        <v>0.004471417355403029</v>
+        <v>0.01667550422004517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>46.67334866666667</v>
+      </c>
+      <c r="H20">
+        <v>140.020046</v>
+      </c>
+      <c r="I20">
+        <v>0.1894335743035749</v>
+      </c>
+      <c r="J20">
+        <v>0.2153405195341624</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.0147745</v>
+      </c>
+      <c r="N20">
+        <v>0.029549</v>
+      </c>
+      <c r="O20">
+        <v>0.001149981856525043</v>
+      </c>
+      <c r="P20">
+        <v>0.0007958682187241619</v>
+      </c>
+      <c r="Q20">
+        <v>0.6895753898756667</v>
+      </c>
+      <c r="R20">
+        <v>4.137452339254</v>
+      </c>
+      <c r="S20">
+        <v>0.0002178451734657996</v>
+      </c>
+      <c r="T20">
+        <v>0.0001713826757007894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>46.67334866666667</v>
+      </c>
+      <c r="H21">
+        <v>140.020046</v>
+      </c>
+      <c r="I21">
+        <v>0.1894335743035749</v>
+      </c>
+      <c r="J21">
+        <v>0.2153405195341624</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.243073</v>
+      </c>
+      <c r="N21">
+        <v>33.729219</v>
+      </c>
+      <c r="O21">
+        <v>0.8751111686748507</v>
+      </c>
+      <c r="P21">
+        <v>0.9084575939790571</v>
+      </c>
+      <c r="Q21">
+        <v>524.7518662137861</v>
+      </c>
+      <c r="R21">
+        <v>4722.766795924074</v>
+      </c>
+      <c r="S21">
+        <v>0.1657754365950556</v>
+      </c>
+      <c r="T21">
+        <v>0.1956277302622053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>46.67334866666667</v>
+      </c>
+      <c r="H22">
+        <v>140.020046</v>
+      </c>
+      <c r="I22">
+        <v>0.1894335743035749</v>
+      </c>
+      <c r="J22">
+        <v>0.2153405195341624</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.131107</v>
+      </c>
+      <c r="O22">
+        <v>0.003401596698442785</v>
+      </c>
+      <c r="P22">
+        <v>0.003531215762031497</v>
+      </c>
+      <c r="Q22">
+        <v>2.039734241213556</v>
+      </c>
+      <c r="R22">
+        <v>18.357608170922</v>
+      </c>
+      <c r="S22">
+        <v>0.0006443766209252563</v>
+      </c>
+      <c r="T22">
+        <v>0.0007604138367830858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>46.67334866666667</v>
+      </c>
+      <c r="H23">
+        <v>140.020046</v>
+      </c>
+      <c r="I23">
+        <v>0.1894335743035749</v>
+      </c>
+      <c r="J23">
+        <v>0.2153405195341624</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.03203666666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.09611</v>
+      </c>
+      <c r="O23">
+        <v>0.002493592704335665</v>
+      </c>
+      <c r="P23">
+        <v>0.002588611949696409</v>
+      </c>
+      <c r="Q23">
+        <v>1.495258513451111</v>
+      </c>
+      <c r="R23">
+        <v>13.45732662106</v>
+      </c>
+      <c r="S23">
+        <v>0.0004723701788396224</v>
+      </c>
+      <c r="T23">
+        <v>0.0005574330421199659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>46.67334866666667</v>
+      </c>
+      <c r="H24">
+        <v>140.020046</v>
+      </c>
+      <c r="I24">
+        <v>0.1894335743035749</v>
+      </c>
+      <c r="J24">
+        <v>0.2153405195341624</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.114006</v>
+      </c>
+      <c r="N24">
+        <v>0.342018</v>
+      </c>
+      <c r="O24">
+        <v>0.008873723749365056</v>
+      </c>
+      <c r="P24">
+        <v>0.009211860179078832</v>
+      </c>
+      <c r="Q24">
+        <v>5.321041788092001</v>
+      </c>
+      <c r="R24">
+        <v>47.88937609282801</v>
+      </c>
+      <c r="S24">
+        <v>0.001680981207224742</v>
+      </c>
+      <c r="T24">
+        <v>0.001983686756838898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>46.67334866666667</v>
+      </c>
+      <c r="H25">
+        <v>140.020046</v>
+      </c>
+      <c r="I25">
+        <v>0.1894335743035749</v>
+      </c>
+      <c r="J25">
+        <v>0.2153405195341624</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.4000015</v>
+      </c>
+      <c r="N25">
+        <v>2.800003</v>
+      </c>
+      <c r="O25">
+        <v>0.1089699363164807</v>
+      </c>
+      <c r="P25">
+        <v>0.07541484991141187</v>
+      </c>
+      <c r="Q25">
+        <v>65.34275814335633</v>
+      </c>
+      <c r="R25">
+        <v>392.056548860138</v>
+      </c>
+      <c r="S25">
+        <v>0.02064256452806387</v>
+      </c>
+      <c r="T25">
+        <v>0.01623987296051431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>37.482998</v>
+      </c>
+      <c r="H26">
+        <v>112.448994</v>
+      </c>
+      <c r="I26">
+        <v>0.1521326086427743</v>
+      </c>
+      <c r="J26">
+        <v>0.1729382719175361</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.0147745</v>
+      </c>
+      <c r="N26">
+        <v>0.029549</v>
+      </c>
+      <c r="O26">
+        <v>0.001149981856525043</v>
+      </c>
+      <c r="P26">
+        <v>0.0007958682187241619</v>
+      </c>
+      <c r="Q26">
+        <v>0.553792553951</v>
+      </c>
+      <c r="R26">
+        <v>3.322755323706</v>
+      </c>
+      <c r="S26">
+        <v>0.0001749497397250153</v>
+      </c>
+      <c r="T26">
+        <v>0.0001376360744202442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>37.482998</v>
+      </c>
+      <c r="H27">
+        <v>112.448994</v>
+      </c>
+      <c r="I27">
+        <v>0.1521326086427743</v>
+      </c>
+      <c r="J27">
+        <v>0.1729382719175361</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>11.243073</v>
+      </c>
+      <c r="N27">
+        <v>33.729219</v>
+      </c>
+      <c r="O27">
+        <v>0.8751111686748507</v>
+      </c>
+      <c r="P27">
+        <v>0.9084575939790571</v>
+      </c>
+      <c r="Q27">
+        <v>421.424082772854</v>
+      </c>
+      <c r="R27">
+        <v>3792.816744955686</v>
+      </c>
+      <c r="S27">
+        <v>0.1331329449429319</v>
+      </c>
+      <c r="T27">
+        <v>0.1571070864131008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>37.482998</v>
+      </c>
+      <c r="H28">
+        <v>112.448994</v>
+      </c>
+      <c r="I28">
+        <v>0.1521326086427743</v>
+      </c>
+      <c r="J28">
+        <v>0.1729382719175361</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.131107</v>
+      </c>
+      <c r="O28">
+        <v>0.003401596698442785</v>
+      </c>
+      <c r="P28">
+        <v>0.003531215762031497</v>
+      </c>
+      <c r="Q28">
+        <v>1.638094472928667</v>
+      </c>
+      <c r="R28">
+        <v>14.742850256358</v>
+      </c>
+      <c r="S28">
+        <v>0.0005174937792847492</v>
+      </c>
+      <c r="T28">
+        <v>0.0006106823516536924</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>37.482998</v>
+      </c>
+      <c r="H29">
+        <v>112.448994</v>
+      </c>
+      <c r="I29">
+        <v>0.1521326086427743</v>
+      </c>
+      <c r="J29">
+        <v>0.1729382719175361</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.03203666666666666</v>
+      </c>
+      <c r="N29">
+        <v>0.09611</v>
+      </c>
+      <c r="O29">
+        <v>0.002493592704335665</v>
+      </c>
+      <c r="P29">
+        <v>0.002588611949696409</v>
+      </c>
+      <c r="Q29">
+        <v>1.200830312593333</v>
+      </c>
+      <c r="R29">
+        <v>10.80747281334</v>
+      </c>
+      <c r="S29">
+        <v>0.0003793567630031748</v>
+      </c>
+      <c r="T29">
+        <v>0.0004476700772455809</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>37.482998</v>
+      </c>
+      <c r="H30">
+        <v>112.448994</v>
+      </c>
+      <c r="I30">
+        <v>0.1521326086427743</v>
+      </c>
+      <c r="J30">
+        <v>0.1729382719175361</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.114006</v>
+      </c>
+      <c r="N30">
+        <v>0.342018</v>
+      </c>
+      <c r="O30">
+        <v>0.008873723749365056</v>
+      </c>
+      <c r="P30">
+        <v>0.009211860179078832</v>
+      </c>
+      <c r="Q30">
+        <v>4.273286669988001</v>
+      </c>
+      <c r="R30">
+        <v>38.459580029892</v>
+      </c>
+      <c r="S30">
+        <v>0.001349982742366246</v>
+      </c>
+      <c r="T30">
+        <v>0.001593083180515858</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>37.482998</v>
+      </c>
+      <c r="H31">
+        <v>112.448994</v>
+      </c>
+      <c r="I31">
+        <v>0.1521326086427743</v>
+      </c>
+      <c r="J31">
+        <v>0.1729382719175361</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.4000015</v>
+      </c>
+      <c r="N31">
+        <v>2.800003</v>
+      </c>
+      <c r="O31">
+        <v>0.1089699363164807</v>
+      </c>
+      <c r="P31">
+        <v>0.07541484991141187</v>
+      </c>
+      <c r="Q31">
+        <v>52.476253424497</v>
+      </c>
+      <c r="R31">
+        <v>314.857520546982</v>
+      </c>
+      <c r="S31">
+        <v>0.0165778806754632</v>
+      </c>
+      <c r="T31">
+        <v>0.01304211382059992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>22.011696</v>
+      </c>
+      <c r="H32">
+        <v>44.023392</v>
+      </c>
+      <c r="I32">
+        <v>0.08933908469999435</v>
+      </c>
+      <c r="J32">
+        <v>0.06770473497013484</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.0147745</v>
+      </c>
+      <c r="N32">
+        <v>0.029549</v>
+      </c>
+      <c r="O32">
+        <v>0.001149981856525043</v>
+      </c>
+      <c r="P32">
+        <v>0.0007958682187241619</v>
+      </c>
+      <c r="Q32">
+        <v>0.325211802552</v>
+      </c>
+      <c r="R32">
+        <v>1.300847210208</v>
+      </c>
+      <c r="S32">
+        <v>0.0001027383264835475</v>
+      </c>
+      <c r="T32">
+        <v>5.388404681987268E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>22.011696</v>
+      </c>
+      <c r="H33">
+        <v>44.023392</v>
+      </c>
+      <c r="I33">
+        <v>0.08933908469999435</v>
+      </c>
+      <c r="J33">
+        <v>0.06770473497013484</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>11.243073</v>
+      </c>
+      <c r="N33">
+        <v>33.729219</v>
+      </c>
+      <c r="O33">
+        <v>0.8751111686748507</v>
+      </c>
+      <c r="P33">
+        <v>0.9084575939790571</v>
+      </c>
+      <c r="Q33">
+        <v>247.479104981808</v>
+      </c>
+      <c r="R33">
+        <v>1484.874629890848</v>
+      </c>
+      <c r="S33">
+        <v>0.07818163082015353</v>
+      </c>
+      <c r="T33">
+        <v>0.06150688063195842</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>22.011696</v>
+      </c>
+      <c r="H34">
+        <v>44.023392</v>
+      </c>
+      <c r="I34">
+        <v>0.08933908469999435</v>
+      </c>
+      <c r="J34">
+        <v>0.06770473497013484</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.131107</v>
+      </c>
+      <c r="O34">
+        <v>0.003401596698442785</v>
+      </c>
+      <c r="P34">
+        <v>0.003531215762031497</v>
+      </c>
+      <c r="Q34">
+        <v>0.9619624758240001</v>
+      </c>
+      <c r="R34">
+        <v>5.771774854944</v>
+      </c>
+      <c r="S34">
+        <v>0.0003038955355574011</v>
+      </c>
+      <c r="T34">
+        <v>0.0002390800272907052</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>22.011696</v>
+      </c>
+      <c r="H35">
+        <v>44.023392</v>
+      </c>
+      <c r="I35">
+        <v>0.08933908469999435</v>
+      </c>
+      <c r="J35">
+        <v>0.06770473497013484</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.03203666666666666</v>
+      </c>
+      <c r="N35">
+        <v>0.09611</v>
+      </c>
+      <c r="O35">
+        <v>0.002493592704335665</v>
+      </c>
+      <c r="P35">
+        <v>0.002588611949696409</v>
+      </c>
+      <c r="Q35">
+        <v>0.7051813675199999</v>
+      </c>
+      <c r="R35">
+        <v>4.23108820512</v>
+      </c>
+      <c r="S35">
+        <v>0.0002227752898199319</v>
+      </c>
+      <c r="T35">
+        <v>0.0001752612859947194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>22.011696</v>
+      </c>
+      <c r="H36">
+        <v>44.023392</v>
+      </c>
+      <c r="I36">
+        <v>0.08933908469999435</v>
+      </c>
+      <c r="J36">
+        <v>0.06770473497013484</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.114006</v>
+      </c>
+      <c r="N36">
+        <v>0.342018</v>
+      </c>
+      <c r="O36">
+        <v>0.008873723749365056</v>
+      </c>
+      <c r="P36">
+        <v>0.009211860179078832</v>
+      </c>
+      <c r="Q36">
+        <v>2.509465414176</v>
+      </c>
+      <c r="R36">
+        <v>15.056792485056</v>
+      </c>
+      <c r="S36">
+        <v>0.0007927703576488763</v>
+      </c>
+      <c r="T36">
+        <v>0.0006236865520064712</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>22.011696</v>
+      </c>
+      <c r="H37">
+        <v>44.023392</v>
+      </c>
+      <c r="I37">
+        <v>0.08933908469999435</v>
+      </c>
+      <c r="J37">
+        <v>0.06770473497013484</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.4000015</v>
+      </c>
+      <c r="N37">
+        <v>2.800003</v>
+      </c>
+      <c r="O37">
+        <v>0.1089699363164807</v>
+      </c>
+      <c r="P37">
+        <v>0.07541484991141187</v>
+      </c>
+      <c r="Q37">
+        <v>30.816407417544</v>
+      </c>
+      <c r="R37">
+        <v>123.265629670176</v>
+      </c>
+      <c r="S37">
+        <v>0.009735274370331061</v>
+      </c>
+      <c r="T37">
+        <v>0.005105942426064637</v>
       </c>
     </row>
   </sheetData>
